--- a/master report.xlsx
+++ b/master report.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="897" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="897"/>
   </bookViews>
   <sheets>
-    <sheet name="pinnacle(07-08-20 to 18-04-21)" sheetId="1" r:id="rId1"/>
+    <sheet name="pinnacle(07-08-20 to 20-04-21)" sheetId="1" r:id="rId1"/>
     <sheet name="sportybet(10-03-21 to 18-04-21)" sheetId="2" r:id="rId2"/>
     <sheet name="sportpesa(28-11-20 to 11-04-21)" sheetId="3" r:id="rId3"/>
-    <sheet name="22bet(19-01-20 to 19-04-21)" sheetId="4" r:id="rId4"/>
+    <sheet name="22bet(19-01-20 to 20-04-21)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,11 +1128,11 @@
         <v>14</v>
       </c>
       <c r="L4" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ref="M4:M24" si="6">K4+L4</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -4306,11 +4306,11 @@
       </c>
       <c r="L25" s="14">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="15"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="15"/>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.58333333333333337</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -12271,8 +12271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,11 +12844,11 @@
         <v>11</v>
       </c>
       <c r="L6" s="26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="28">
         <v>1</v>
@@ -13278,11 +13278,11 @@
         <v>2</v>
       </c>
       <c r="L10" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="27">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="28"/>
       <c r="O10" s="26"/>
@@ -14819,11 +14819,11 @@
       </c>
       <c r="L25" s="26">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M25" s="27">
         <f t="shared" si="14"/>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N25" s="28">
         <f t="shared" si="14"/>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.51388888888888884</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/master report.xlsx
+++ b/master report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="897"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="897" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pinnacle(07-08-20 to 20-04-21)" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,14 +1425,14 @@
         <v>3</v>
       </c>
       <c r="K6" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4">
         <v>5</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -2641,14 +2641,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" s="4">
         <v>6</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N14" s="6">
         <v>0</v>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="K25" s="13">
         <f t="shared" si="15"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" si="15"/>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="M25" s="15">
         <f t="shared" si="15"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="15"/>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.5714285714285714</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4563,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5135,14 +5135,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="K25" s="13">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" si="15"/>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="M25" s="15">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="15"/>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.57894736842105265</v>
+        <v>0.6</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8418,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11524,14 +11524,14 @@
         <v>38</v>
       </c>
       <c r="B22" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B25" s="13">
         <f>SUM(B3:B24)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="14">
         <f>SUM(C3:C24)</f>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="D25" s="15">
         <f>SUM(D3:D24)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" ref="E25:AK25" si="15">SUM(E3:E24)</f>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B26" s="21">
         <f>B25/D25</f>
-        <v>0.9375</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -12271,8 +12271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,11 +12844,11 @@
         <v>11</v>
       </c>
       <c r="L6" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" s="28">
         <v>1</v>
@@ -13278,11 +13278,11 @@
         <v>2</v>
       </c>
       <c r="L10" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" s="28"/>
       <c r="O10" s="26"/>
@@ -14819,11 +14819,11 @@
       </c>
       <c r="L25" s="26">
         <f t="shared" si="14"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" s="27">
         <f t="shared" si="14"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N25" s="28">
         <f t="shared" si="14"/>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.50684931506849318</v>
+        <v>0.5</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>

--- a/master report.xlsx
+++ b/master report.xlsx
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,14 +1731,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="6">
         <v>0</v>
@@ -1903,14 +1903,14 @@
         <v>0</v>
       </c>
       <c r="Q9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" s="6">
         <v>0</v>
@@ -2644,11 +2644,11 @@
         <v>9</v>
       </c>
       <c r="L14" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" s="6">
         <v>0</v>
@@ -3096,11 +3096,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="6">
         <v>0</v>
@@ -3396,11 +3396,11 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="6">
         <v>0</v>
@@ -3816,11 +3816,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -4270,11 +4270,11 @@
       </c>
       <c r="C25" s="14">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="15"/>
@@ -4302,15 +4302,15 @@
       </c>
       <c r="K25" s="13">
         <f t="shared" si="15"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="15"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="15"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R25" s="14">
         <f t="shared" si="15"/>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="S25" s="15">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T25" s="13">
         <f t="shared" si="15"/>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B26" s="21">
         <f>B25/D25</f>
-        <v>0.54166666666666663</v>
+        <v>0.52</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.57999999999999996</v>
+        <v>0.56730769230769229</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="Q26" s="21">
         <f>Q25/S25</f>
-        <v>0.75</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="T26" s="21">
         <f>T25/V25</f>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4563,7 +4563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -5138,11 +5138,11 @@
         <v>2</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -5255,14 +5255,14 @@
         <v>22</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -5288,11 +5288,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -5305,14 +5305,14 @@
         <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="6">
         <v>0</v>
@@ -5409,14 +5409,14 @@
         <v>23</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -6502,11 +6502,11 @@
         <v>4</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="6">
         <v>0</v>
@@ -7724,11 +7724,11 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B25" s="13">
         <f>SUM(B3:B24)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="14">
         <f>SUM(C4:C24)</f>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="D25" s="15">
         <f>SUM(D3:D24)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" ref="E25:AK25" si="15">SUM(E3:E24)</f>
@@ -8163,11 +8163,11 @@
       </c>
       <c r="L25" s="14">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="15"/>
@@ -8183,15 +8183,15 @@
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="15">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T25" s="13">
         <f t="shared" si="15"/>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.6</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="Q26" s="21">
         <f>Q25/S25</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T26" s="21" t="e">
         <f>T25/V25</f>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="24">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -8418,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8808,14 +8808,14 @@
         <v>20</v>
       </c>
       <c r="B4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ref="D4:D24" si="3">B4+C4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -10342,14 +10342,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="6">
         <v>3</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B25" s="13">
         <f>SUM(B3:B24)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="14">
         <f>SUM(C3:C24)</f>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="D25" s="15">
         <f>SUM(D3:D24)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" ref="E25:AK25" si="15">SUM(E3:E24)</f>
@@ -12001,14 +12001,14 @@
       </c>
       <c r="H25" s="13">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="14">
         <v>0</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="15"/>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B26" s="21">
         <f>B25/D25</f>
-        <v>0.94117647058823528</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="H26" s="21">
         <f>H25/J25</f>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
@@ -12272,7 +12272,7 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,11 +12844,11 @@
         <v>11</v>
       </c>
       <c r="L6" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" s="27">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="28">
         <v>1</v>
@@ -13669,14 +13669,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="26">
         <v>7</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" s="28">
         <v>22</v>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="H25" s="28">
         <f t="shared" si="14"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25" s="26">
         <f t="shared" si="14"/>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="J25" s="27">
         <f t="shared" si="14"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" s="28">
         <f t="shared" si="14"/>
@@ -14819,11 +14819,11 @@
       </c>
       <c r="L25" s="26">
         <f t="shared" si="14"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M25" s="27">
         <f t="shared" si="14"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N25" s="28">
         <f t="shared" si="14"/>
@@ -14963,11 +14963,11 @@
       </c>
       <c r="H26" s="21">
         <f>H25/J25</f>
-        <v>0.51388888888888884</v>
+        <v>0.52054794520547942</v>
       </c>
       <c r="K26" s="21">
         <f>K25/M25</f>
-        <v>0.5</v>
+        <v>0.49664429530201343</v>
       </c>
       <c r="N26" s="21">
         <f>N25/P25</f>
